--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rshiv\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rshiv\git\RummyBaaziProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36770C5F-37FB-4A45-A874-D9DC0C78FB97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B050CA-47C7-47E5-B36D-57629114789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CF6432D-F57A-4643-8D74-06E1C2C2E81D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -45,13 +45,14 @@
     <t>Rbtest91</t>
   </si>
   <si>
-    <t>Rbtest89</t>
+    <t>rbtest53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,13 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1CE62F-A919-457C-9642-5EDC74BC23EB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -451,14 +455,6 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -467,8 +463,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Test@123" xr:uid="{0F62C728-8E08-4EAE-8AB3-426A915C8407}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2C68AF4A-E34D-4401-AD68-EA5FE0FA3ECC}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{1D39F7CE-1F44-4FB7-884E-F396C87DF107}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{8BACE402-D080-45ED-B858-04F400D7EBE9}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8BACE402-D080-45ED-B858-04F400D7EBE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rshiv\git\RummyBaaziProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B050CA-47C7-47E5-B36D-57629114789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE274CE9-255C-462F-ADCB-B5F1C914BEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CF6432D-F57A-4643-8D74-06E1C2C2E81D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Rbtest51</t>
   </si>
   <si>
-    <t>Rbtest52</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>rbtest53</t>
+  </si>
+  <si>
+    <t>Test-1</t>
   </si>
 </sst>
 </file>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1CE62F-A919-457C-9642-5EDC74BC23EB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +426,7 @@
     <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,20 +442,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rshiv\git\RummyBaaziProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rshiv\git\AutomationProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE274CE9-255C-462F-ADCB-B5F1C914BEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E208C-C7CE-44A6-9FA5-7B3774BCA279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CF6432D-F57A-4643-8D74-06E1C2C2E81D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7CF6432D-F57A-4643-8D74-06E1C2C2E81D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="flightbooking" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -46,13 +47,30 @@
   </si>
   <si>
     <t>Test-1</t>
+  </si>
+  <si>
+    <t>FromCity</t>
+  </si>
+  <si>
+    <t>From City Code</t>
+  </si>
+  <si>
+    <t>ToCity</t>
+  </si>
+  <si>
+    <t>To City Code</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,9 +115,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,13 +438,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1CE62F-A919-457C-9642-5EDC74BC23EB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,4 +491,48 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E97A3B-E52B-4C48-BDB3-C28C98865B26}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>